--- a/05_Gerenciamento_de_Projeto/Documentacao/Requisitos - UniBook.xlsx
+++ b/05_Gerenciamento_de_Projeto/Documentacao/Requisitos - UniBook.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25704"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maicon\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86B7025C-7683-4CC2-88B5-F65F74DC15FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{820DE551-7E1E-411E-8B93-0027DA125B39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2E7C18B8-03A8-4B48-BD38-8C879C48EE9A}"/>
   </bookViews>
   <sheets>
     <sheet name="Rastreabilidade 1.0" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,8 +23,11 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -32,7 +35,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="76">
+  <si>
+    <t>Sprint Backlog - UniBooks</t>
+  </si>
   <si>
     <t>ID</t>
   </si>
@@ -40,10 +46,16 @@
     <t>ID Associado</t>
   </si>
   <si>
-    <t>Descrição de Requisitos</t>
-  </si>
-  <si>
-    <t>Criterio de avaliação</t>
+    <t>Requisitos</t>
+  </si>
+  <si>
+    <t>Descrição dos Requisitos</t>
+  </si>
+  <si>
+    <t>Tamanho</t>
+  </si>
+  <si>
+    <t>Código de Desenho (Rastreabilidade)</t>
   </si>
   <si>
     <t>Tipo do Requisito</t>
@@ -55,149 +67,209 @@
     <t>Funcional</t>
   </si>
   <si>
-    <t>1.1</t>
+    <t>Protótipo de Telas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seguindo os conceitos de Ux, fazer um protótipo de baixa resolução na ferramenta figma </t>
+  </si>
+  <si>
+    <t>Página de Cadastro</t>
+  </si>
+  <si>
+    <t>Em HTML/ CSS fazer uma tela de cadastro que atenda as necessidades dos diversos usuários que utilizaram a plataforma</t>
+  </si>
+  <si>
+    <t>React.JS &amp; Spring Boot</t>
   </si>
   <si>
     <t xml:space="preserve">Página de Login </t>
   </si>
   <si>
-    <t>1.2</t>
-  </si>
-  <si>
-    <t>1.3</t>
-  </si>
-  <si>
-    <t>1.4</t>
+    <t>Em JavaScript fazer uma página de login que contemple as validações com campos de login, senha e um espaço para o esqueci a senha</t>
   </si>
   <si>
     <t>Página Home</t>
   </si>
   <si>
-    <t>1.5</t>
-  </si>
-  <si>
-    <t>1.6</t>
+    <t xml:space="preserve">Em HTMlL/CSS  conforme o protótipo, </t>
+  </si>
+  <si>
+    <t>Página Produtos (Comprador)</t>
+  </si>
+  <si>
+    <t>Uma página feita em HTML/CSS que contemple o protótipo já realizado, no figma deve mostrar os produtos que o comprador pode comprar</t>
+  </si>
+  <si>
+    <t>Página Produtos (Vendedor)</t>
+  </si>
+  <si>
+    <t>Página feita em HTML/CSS que comtemple o protótipo no figma, deve mostrar para o vendedor os produtos que o mesmo anunciou</t>
   </si>
   <si>
     <t xml:space="preserve">Dashboard </t>
   </si>
   <si>
+    <t>1.7.1</t>
+  </si>
+  <si>
+    <t>Aba de quantidade de vendas de produtos</t>
+  </si>
+  <si>
+    <t>Fazer uma aba que seja direcionada a visualização das vendas de cada produto que o Vendedor teve</t>
+  </si>
+  <si>
+    <t>1.7.2</t>
+  </si>
+  <si>
+    <t>Aba de Lucro mensal(Vendedor)</t>
+  </si>
+  <si>
+    <t>Fazer uma aba que contenha o cálculo do lucro mensal que cada Vendedor obteve, podem filtrar essas buscas por meses</t>
+  </si>
+  <si>
+    <t>1.7.3</t>
+  </si>
+  <si>
+    <t>Aba de Projeções futuras/Billing</t>
+  </si>
+  <si>
+    <t>Deve ter uma parte na dashboard voltada para o Billing conforma cálculo para as projeções futuras de venda</t>
+  </si>
+  <si>
+    <t>1.7.4</t>
+  </si>
+  <si>
+    <t>Página de Analytics/Report</t>
+  </si>
+  <si>
+    <t>Dentro dashboard deve haver uma página que contenha todo os Analytics conforme a necessidade do usuário, podendo conter WordCloud e gráficos</t>
+  </si>
+  <si>
+    <t>1.7.5</t>
+  </si>
+  <si>
+    <t>Gráficos com as movimentações dos produtos</t>
+  </si>
+  <si>
+    <t>Deve ter uma área dentro da Dashboard em que haverá uma visualização dos gráficos (linha, barra e etc) com as informações das movimentações dos produtos</t>
+  </si>
+  <si>
     <t>Banco de Dados</t>
   </si>
   <si>
-    <t>2.1</t>
-  </si>
-  <si>
-    <t>Funcionamento em nuvem (AWS/Azure)</t>
-  </si>
-  <si>
-    <t>2.2</t>
-  </si>
-  <si>
-    <t>2.3</t>
-  </si>
-  <si>
-    <t>2.4</t>
+    <t>Modelo Lógico de Dados</t>
+  </si>
+  <si>
+    <t>Desenvolver um Modelo Lógico com as tabelas e relacionamentos que atenda as necessidades do projeto e suporte os dados</t>
+  </si>
+  <si>
+    <t>Ambiente Azure</t>
+  </si>
+  <si>
+    <t>Dentro da Aws configurar e dar acesso a todos os integrantes do grupo ao ambiente. Utilizar a nuvem da AWS para receber os dados do projeto</t>
+  </si>
+  <si>
+    <t>MySQL &amp; SQL Server</t>
+  </si>
+  <si>
+    <t>Dados do produtos</t>
+  </si>
+  <si>
+    <t>Conter em nosso modelo de dados tabelas com as informações do produto como nome, tipo, preço e categoria</t>
   </si>
   <si>
     <t>Dados cliente (Nome, Sobrenome, e-mail, senha) </t>
   </si>
   <si>
+    <t>Conter em nosso modelo de dados tabelas com as informações do cliente como nome, sobrenome, e-mail e senha</t>
+  </si>
+  <si>
     <t>Sistema</t>
   </si>
   <si>
-    <t>3.1</t>
-  </si>
-  <si>
-    <t>3.2</t>
-  </si>
-  <si>
-    <t>3.3</t>
-  </si>
-  <si>
-    <t>3.4</t>
-  </si>
-  <si>
-    <t>Rastreabilidade dos Requisitos - UniBooks</t>
-  </si>
-  <si>
-    <t>Página de Cadastro</t>
-  </si>
-  <si>
-    <t>Página Produtos (Comprador)</t>
-  </si>
-  <si>
-    <t>Página Produtos (Vendedor)</t>
+    <t>﻿﻿﻿﻿﻿Back-end Login e Logoff funcionando com Postman</t>
+  </si>
+  <si>
+    <t>Criar uma API de Login utilizando o Spring Boot com suas dependências. Deve-se haver uma validação para o Login e Logoff</t>
   </si>
   <si>
     <t>Chat(Comprador-Vendedor)</t>
   </si>
   <si>
+    <t>Criar um chat que seja feito em HTML, CSS e Typescript como front-end. E será utilizado Java com Spring Boot para o Back-end</t>
+  </si>
+  <si>
+    <t>API Python/Java/JS</t>
+  </si>
+  <si>
     <t xml:space="preserve">Pagina de Pagamentos </t>
   </si>
   <si>
-    <t>Pagina de Analytics(Vendedor e Administrador)</t>
-  </si>
-  <si>
-    <t>Identificar tipo de usuario(Comprador ou Vendedor)</t>
-  </si>
-  <si>
-    <t>Dados do produtos(Nome, tipo, preço, categoria)</t>
-  </si>
-  <si>
-    <t>Quantidade de vendas de produtos</t>
-  </si>
-  <si>
-    <t>Lucro mensal(Vendedor)</t>
-  </si>
-  <si>
-    <t>Projeções futuras</t>
-  </si>
-  <si>
-    <t>Tipos de produtos mais comprados(Livros e apostilas)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quantidade de movimentações </t>
-  </si>
-  <si>
-    <t>Gerador de Cupom</t>
-  </si>
-  <si>
-    <t>1.6.1</t>
-  </si>
-  <si>
-    <t>1.6.2</t>
-  </si>
-  <si>
-    <t>1.6.3</t>
-  </si>
-  <si>
-    <t>1.6.4</t>
-  </si>
-  <si>
-    <t>1.6.5</t>
-  </si>
-  <si>
-    <t>React.JS &amp; Spring Boot</t>
-  </si>
-  <si>
-    <t>MySQL &amp; SQL Server</t>
-  </si>
-  <si>
-    <t>API Python/Java/JS</t>
-  </si>
-  <si>
-    <t>Dependências internas entre requisitos(Rastreabilidade)</t>
+    <t>Fazer uma página de pagamento que contemple informações completas sobre a compra. Como valor, forma de pagamento e etc</t>
+  </si>
+  <si>
+    <t>Analytics(Vendedor e Administrador)</t>
+  </si>
+  <si>
+    <t>Desenvolver uma página com informações que agregem valor ao cliente. A página deve ter três visões,uma do administrador, outra para o vendedor e para o comprador. Seguindo um nível de complexidade conforme cada usuário</t>
   </si>
   <si>
     <t>React.JS &amp; Spring Boot/API Python/Chart.JS</t>
+  </si>
+  <si>
+    <t>Bot Telegram</t>
+  </si>
+  <si>
+    <t>Como parte da inovação deve-se ser feito uma conexão com a api do telegram com finalidade de facilitar a comunicação com o usuário.</t>
+  </si>
+  <si>
+    <t>Engenharia de Software</t>
+  </si>
+  <si>
+    <t>Pesquisa em Campo(Proto-Persona)</t>
+  </si>
+  <si>
+    <t>Desenvolver perquisa de campo para aprimoramento das personas</t>
+  </si>
+  <si>
+    <t>Identificar Proto-Persona</t>
+  </si>
+  <si>
+    <t>Com a pesquisa realizada haverá uma maior facilidade em desenvolver a proto-persona. Sempre dentro do escopo focado em representar uma classe com características</t>
+  </si>
+  <si>
+    <t>Configurar Github</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Para atender o versionamento do projeto com uma visão ampla de toda as partes </t>
+  </si>
+  <si>
+    <t>Jornada do Usuário</t>
+  </si>
+  <si>
+    <t>Deve ser feito a jornada de usuário para melhor visualização dos seus sentimentos e emoções no uso da aplicação</t>
+  </si>
+  <si>
+    <t>Desenho de Solução</t>
+  </si>
+  <si>
+    <t>Deve  ser feito o desenho de solução conforme a arquitetura com detalhamento com o que será utilizado na aplicação</t>
+  </si>
+  <si>
+    <t>Configurar o Planner</t>
+  </si>
+  <si>
+    <t>Desenvolver teste de usabilidade para gerar dados que agregarão na usabilidade do usuário</t>
+  </si>
+  <si>
+    <t>Teste de Usabilidade</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -241,6 +313,35 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="17"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -280,7 +381,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -357,11 +458,169 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -369,83 +628,154 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF030723"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
+  <dxfs count="9">
     <dxf>
       <font>
         <b/>
@@ -460,8 +790,14 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF6F80E9"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right style="thin">
           <color indexed="64"/>
@@ -488,8 +824,14 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF6F80E9"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right/>
         <top style="thin">
@@ -514,8 +856,14 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF6F80E9"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -527,6 +875,14 @@
           <color indexed="64"/>
         </bottom>
       </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF6F80E9"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -541,8 +897,14 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF6F80E9"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right/>
         <top style="thin">
@@ -567,8 +929,14 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF6F80E9"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right style="thin">
           <color indexed="64"/>
@@ -595,8 +963,14 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF6F80E9"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -609,12 +983,54 @@
         </bottom>
       </border>
     </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF6F80E9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF030723"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF6F80E9"/>
       <color rgb="FF162BAD"/>
-      <color rgb="FF6F80E9"/>
       <color rgb="FFFFE635"/>
       <color rgb="FFFFB766"/>
       <color rgb="FFFB8500"/>
@@ -634,22 +1050,31 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DF692329-2935-4174-8730-2DB6FB4E2B08}" name="Tabela2" displayName="Tabela2" ref="A3:F25" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
-  <autoFilter ref="A3:F25" xr:uid="{DF692329-2935-4174-8730-2DB6FB4E2B08}"/>
-  <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{F9335A1A-9A0C-4BF3-B951-A5374DD6BB57}" name="ID" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{8C40662C-C778-453F-805F-6F528BC60754}" name="ID Associado" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{EF7B571E-842D-451A-B776-B36E7036CF4F}" name="Descrição de Requisitos" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{C2B244B7-1A6A-43F5-B494-FCB5921D31F9}" name="Criterio de avaliação" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{1942BDAB-3894-48AD-8160-706E86608F1A}" name="Dependências internas entre requisitos(Rastreabilidade)" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{8E710151-2F4E-4B94-925D-CE0E11AEF6EB}" name="Tipo do Requisito" dataDxfId="2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DF692329-2935-4174-8730-2DB6FB4E2B08}" name="Tabela2" displayName="Tabela2" ref="A3:G40" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+  <autoFilter ref="A3:G40" xr:uid="{DF692329-2935-4174-8730-2DB6FB4E2B08}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
+    <filterColumn colId="4" hiddenButton="1"/>
+    <filterColumn colId="5" hiddenButton="1"/>
+    <filterColumn colId="6" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{F9335A1A-9A0C-4BF3-B951-A5374DD6BB57}" name="ID" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{8C40662C-C778-453F-805F-6F528BC60754}" name="ID Associado" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{EF7B571E-842D-451A-B776-B36E7036CF4F}" name="Requisitos" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{E4C965DA-DA96-49D0-9EF2-C5DEB84C2A3E}" name="Descrição dos Requisitos" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{C2B244B7-1A6A-43F5-B494-FCB5921D31F9}" name="Tamanho" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{1942BDAB-3894-48AD-8160-706E86608F1A}" name="Código de Desenho (Rastreabilidade)" dataDxfId="1"/>
+    <tableColumn id="9" xr3:uid="{8E710151-2F4E-4B94-925D-CE0E11AEF6EB}" name="Tipo do Requisito" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -945,33 +1370,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52F74AEB-4E46-4D7B-A75D-E363E9B6BB23}">
-  <dimension ref="A1:AC40"/>
+  <dimension ref="A1:AD85"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="C30" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="72.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="69.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="29" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="10" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" customWidth="1"/>
+    <col min="3" max="3" width="63.5703125" customWidth="1"/>
+    <col min="4" max="4" width="72.85546875" customWidth="1"/>
+    <col min="5" max="5" width="28.7109375" customWidth="1"/>
+    <col min="6" max="6" width="53.85546875" customWidth="1"/>
+    <col min="7" max="7" width="31.28515625" customWidth="1"/>
+    <col min="8" max="30" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="2"/>
+    <row r="1" spans="1:30" s="3" customFormat="1" ht="18.75">
+      <c r="A1" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
@@ -994,15 +1420,16 @@
       <c r="AA1" s="2"/>
       <c r="AB1" s="2"/>
       <c r="AC1" s="2"/>
-    </row>
-    <row r="2" spans="1:29" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A2" s="7"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="2"/>
+      <c r="AD1" s="2"/>
+    </row>
+    <row r="2" spans="1:30" s="3" customFormat="1" ht="18.75">
+      <c r="A2" s="54"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
@@ -1025,27 +1452,30 @@
       <c r="AA2" s="2"/>
       <c r="AB2" s="2"/>
       <c r="AC2" s="2"/>
-    </row>
-    <row r="3" spans="1:29" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A3" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="9" t="s">
+      <c r="AD2" s="2"/>
+    </row>
+    <row r="3" spans="1:30" s="4" customFormat="1" ht="22.5">
+      <c r="A3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="B3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="C3" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="F3" s="9" t="s">
+      <c r="D3" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="2"/>
+      <c r="E3" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>7</v>
+      </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -1068,21 +1498,22 @@
       <c r="AA3" s="2"/>
       <c r="AB3" s="2"/>
       <c r="AC3" s="2"/>
-    </row>
-    <row r="4" spans="1:29" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A4" s="10">
+      <c r="AD3" s="2"/>
+    </row>
+    <row r="4" spans="1:30" s="5" customFormat="1" ht="19.5">
+      <c r="A4" s="23">
         <v>1</v>
       </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="G4" s="2"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="26" t="s">
+        <v>9</v>
+      </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
@@ -1105,23 +1536,24 @@
       <c r="AA4" s="2"/>
       <c r="AB4" s="2"/>
       <c r="AC4" s="2"/>
-    </row>
-    <row r="5" spans="1:29" s="6" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A5" s="13"/>
-      <c r="B5" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="14">
-        <v>21</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="F5" s="14"/>
-      <c r="G5" s="2"/>
+      <c r="AD4" s="2"/>
+    </row>
+    <row r="5" spans="1:30" s="6" customFormat="1" ht="36.75" customHeight="1">
+      <c r="A5" s="18"/>
+      <c r="B5" s="18">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C5" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="18">
+        <v>13</v>
+      </c>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
@@ -1144,23 +1576,26 @@
       <c r="AA5" s="2"/>
       <c r="AB5" s="2"/>
       <c r="AC5" s="2"/>
-    </row>
-    <row r="6" spans="1:29" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A6" s="10"/>
-      <c r="B6" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="11">
+      <c r="AD5" s="2"/>
+    </row>
+    <row r="6" spans="1:30" s="5" customFormat="1" ht="37.5">
+      <c r="A6" s="17"/>
+      <c r="B6" s="9">
+        <v>1.2</v>
+      </c>
+      <c r="C6" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="9">
         <v>21</v>
       </c>
-      <c r="E6" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="F6" s="11"/>
-      <c r="G6" s="2"/>
+      <c r="F6" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="9"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
@@ -1183,23 +1618,26 @@
       <c r="AA6" s="2"/>
       <c r="AB6" s="2"/>
       <c r="AC6" s="2"/>
-    </row>
-    <row r="7" spans="1:29" s="6" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A7" s="13"/>
-      <c r="B7" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="14">
-        <v>13</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="F7" s="14"/>
-      <c r="G7" s="2"/>
+      <c r="AD6" s="2"/>
+    </row>
+    <row r="7" spans="1:30" s="6" customFormat="1" ht="57">
+      <c r="A7" s="7"/>
+      <c r="B7" s="8">
+        <v>1.3</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="8">
+        <v>21</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="8"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
@@ -1222,23 +1660,26 @@
       <c r="AA7" s="2"/>
       <c r="AB7" s="2"/>
       <c r="AC7" s="2"/>
-    </row>
-    <row r="8" spans="1:29" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A8" s="10"/>
-      <c r="B8" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="11">
-        <v>21</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="F8" s="11"/>
-      <c r="G8" s="2"/>
+      <c r="AD7" s="2"/>
+    </row>
+    <row r="8" spans="1:30" s="5" customFormat="1" ht="18.75">
+      <c r="A8" s="7"/>
+      <c r="B8" s="8">
+        <v>1.4</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="8">
+        <v>13</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="8"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
@@ -1261,23 +1702,26 @@
       <c r="AA8" s="2"/>
       <c r="AB8" s="2"/>
       <c r="AC8" s="2"/>
-    </row>
-    <row r="9" spans="1:29" s="6" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A9" s="13"/>
-      <c r="B9" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" s="14">
+      <c r="AD8" s="2"/>
+    </row>
+    <row r="9" spans="1:30" s="6" customFormat="1" ht="57">
+      <c r="A9" s="7"/>
+      <c r="B9" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="8">
         <v>21</v>
       </c>
-      <c r="E9" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="F9" s="14"/>
-      <c r="G9" s="2"/>
+      <c r="F9" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="8"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
@@ -1300,21 +1744,26 @@
       <c r="AA9" s="2"/>
       <c r="AB9" s="2"/>
       <c r="AC9" s="2"/>
-    </row>
-    <row r="10" spans="1:29" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A10" s="10" t="s">
+      <c r="AD9" s="2"/>
+    </row>
+    <row r="10" spans="1:30" s="5" customFormat="1" ht="57">
+      <c r="A10" s="24"/>
+      <c r="B10" s="19">
+        <v>1.6</v>
+      </c>
+      <c r="C10" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="24">
+        <v>21</v>
+      </c>
+      <c r="F10" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="G10" s="2"/>
+      <c r="G10" s="19"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
@@ -1337,23 +1786,22 @@
       <c r="AA10" s="2"/>
       <c r="AB10" s="2"/>
       <c r="AC10" s="2"/>
-    </row>
-    <row r="11" spans="1:29" s="6" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A11" s="13"/>
-      <c r="B11" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" s="14">
-        <v>21</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="F11" s="14"/>
-      <c r="G11" s="2"/>
+      <c r="AD10" s="2"/>
+    </row>
+    <row r="11" spans="1:30" s="5" customFormat="1" ht="19.5">
+      <c r="A11" s="23">
+        <v>1.7</v>
+      </c>
+      <c r="B11" s="23"/>
+      <c r="C11" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="25" t="s">
+        <v>9</v>
+      </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
@@ -1376,23 +1824,26 @@
       <c r="AA11" s="2"/>
       <c r="AB11" s="2"/>
       <c r="AC11" s="2"/>
-    </row>
-    <row r="12" spans="1:29" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A12" s="10"/>
-      <c r="B12" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" s="11">
+      <c r="AD11" s="2"/>
+    </row>
+    <row r="12" spans="1:30" s="6" customFormat="1" ht="37.5">
+      <c r="A12" s="17"/>
+      <c r="B12" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="9">
         <v>21</v>
       </c>
-      <c r="E12" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="F12" s="11"/>
-      <c r="G12" s="2"/>
+      <c r="F12" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="8"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
@@ -1415,23 +1866,26 @@
       <c r="AA12" s="2"/>
       <c r="AB12" s="2"/>
       <c r="AC12" s="2"/>
-    </row>
-    <row r="13" spans="1:29" s="6" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A13" s="13"/>
-      <c r="B13" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" s="14">
-        <v>13</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="F13" s="14"/>
-      <c r="G13" s="2"/>
+      <c r="AD12" s="2"/>
+    </row>
+    <row r="13" spans="1:30" s="5" customFormat="1" ht="37.5">
+      <c r="A13" s="7"/>
+      <c r="B13" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="8">
+        <v>21</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" s="8"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
@@ -1454,23 +1908,26 @@
       <c r="AA13" s="2"/>
       <c r="AB13" s="2"/>
       <c r="AC13" s="2"/>
-    </row>
-    <row r="14" spans="1:29" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A14" s="10"/>
-      <c r="B14" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="D14" s="11">
-        <v>8</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="F14" s="11"/>
-      <c r="G14" s="2"/>
+      <c r="AD13" s="2"/>
+    </row>
+    <row r="14" spans="1:30" s="6" customFormat="1" ht="37.5">
+      <c r="A14" s="7"/>
+      <c r="B14" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="19">
+        <v>13</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" s="19"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
@@ -1493,23 +1950,26 @@
       <c r="AA14" s="2"/>
       <c r="AB14" s="2"/>
       <c r="AC14" s="2"/>
-    </row>
-    <row r="15" spans="1:29" s="6" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A15" s="13"/>
-      <c r="B15" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="C15" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="D15" s="14">
+      <c r="AD14" s="2"/>
+    </row>
+    <row r="15" spans="1:30" s="6" customFormat="1" ht="57">
+      <c r="A15" s="12"/>
+      <c r="B15" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="44" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" s="18">
         <v>21</v>
       </c>
-      <c r="E15" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="F15" s="14"/>
-      <c r="G15" s="2"/>
+      <c r="F15" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" s="18"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
@@ -1532,21 +1992,26 @@
       <c r="AA15" s="2"/>
       <c r="AB15" s="2"/>
       <c r="AC15" s="2"/>
-    </row>
-    <row r="16" spans="1:29" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A16" s="10">
-        <v>2</v>
-      </c>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="G16" s="2"/>
+      <c r="AD15" s="2"/>
+    </row>
+    <row r="16" spans="1:30" s="5" customFormat="1" ht="57">
+      <c r="A16" s="7"/>
+      <c r="B16" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16" s="9">
+        <v>8</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" s="9"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
@@ -1569,23 +2034,22 @@
       <c r="AA16" s="2"/>
       <c r="AB16" s="2"/>
       <c r="AC16" s="2"/>
-    </row>
-    <row r="17" spans="1:29" s="6" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A17" s="13"/>
-      <c r="B17" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="D17" s="14">
-        <v>21</v>
-      </c>
-      <c r="E17" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="F17" s="14"/>
-      <c r="G17" s="2"/>
+      <c r="AD16" s="2"/>
+    </row>
+    <row r="17" spans="1:30" s="5" customFormat="1" ht="19.5">
+      <c r="A17" s="23">
+        <v>2</v>
+      </c>
+      <c r="B17" s="23"/>
+      <c r="C17" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="33" t="s">
+        <v>9</v>
+      </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
@@ -1608,23 +2072,24 @@
       <c r="AA17" s="2"/>
       <c r="AB17" s="2"/>
       <c r="AC17" s="2"/>
-    </row>
-    <row r="18" spans="1:29" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A18" s="10"/>
-      <c r="B18" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="D18" s="11">
-        <v>21</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="F18" s="11"/>
-      <c r="G18" s="2"/>
+      <c r="AD17" s="2"/>
+    </row>
+    <row r="18" spans="1:30" s="6" customFormat="1" ht="57">
+      <c r="A18" s="18"/>
+      <c r="B18" s="18">
+        <v>2.1</v>
+      </c>
+      <c r="C18" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="E18" s="18">
+        <v>13</v>
+      </c>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
@@ -1647,23 +2112,26 @@
       <c r="AA18" s="2"/>
       <c r="AB18" s="2"/>
       <c r="AC18" s="2"/>
-    </row>
-    <row r="19" spans="1:29" s="6" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A19" s="13"/>
-      <c r="B19" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="D19" s="14">
+      <c r="AD18" s="2"/>
+    </row>
+    <row r="19" spans="1:30" s="5" customFormat="1" ht="57">
+      <c r="A19" s="18"/>
+      <c r="B19" s="18">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C19" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="E19" s="18">
         <v>21</v>
       </c>
-      <c r="E19" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="F19" s="14"/>
-      <c r="G19" s="2"/>
+      <c r="F19" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="G19" s="18"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
@@ -1686,23 +2154,26 @@
       <c r="AA19" s="2"/>
       <c r="AB19" s="2"/>
       <c r="AC19" s="2"/>
-    </row>
-    <row r="20" spans="1:29" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A20" s="10"/>
-      <c r="B20" s="11" t="s">
+      <c r="AD19" s="2"/>
+    </row>
+    <row r="20" spans="1:30" s="5" customFormat="1" ht="37.5">
+      <c r="A20" s="7"/>
+      <c r="B20" s="8">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E20" s="8">
         <v>21</v>
       </c>
-      <c r="C20" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="D20" s="11">
-        <v>21</v>
-      </c>
-      <c r="E20" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="F20" s="11"/>
-      <c r="G20" s="2"/>
+      <c r="F20" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="G20" s="8"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
@@ -1725,21 +2196,26 @@
       <c r="AA20" s="2"/>
       <c r="AB20" s="2"/>
       <c r="AC20" s="2"/>
-    </row>
-    <row r="21" spans="1:29" s="6" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A21" s="13">
-        <v>3</v>
-      </c>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="G21" s="2"/>
+      <c r="AD20" s="2"/>
+    </row>
+    <row r="21" spans="1:30" s="6" customFormat="1" ht="37.5">
+      <c r="A21" s="7"/>
+      <c r="B21" s="19">
+        <v>2.4</v>
+      </c>
+      <c r="C21" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="E21" s="19">
+        <v>21</v>
+      </c>
+      <c r="F21" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="G21" s="19"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
@@ -1762,23 +2238,22 @@
       <c r="AA21" s="2"/>
       <c r="AB21" s="2"/>
       <c r="AC21" s="2"/>
-    </row>
-    <row r="22" spans="1:29" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A22" s="10"/>
-      <c r="B22" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="D22" s="11">
-        <v>8</v>
-      </c>
-      <c r="E22" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="F22" s="11"/>
-      <c r="G22" s="2"/>
+      <c r="AD21" s="2"/>
+    </row>
+    <row r="22" spans="1:30" s="5" customFormat="1" ht="19.5">
+      <c r="A22" s="34">
+        <v>3</v>
+      </c>
+      <c r="B22" s="23"/>
+      <c r="C22" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23" t="s">
+        <v>9</v>
+      </c>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
@@ -1801,23 +2276,24 @@
       <c r="AA22" s="2"/>
       <c r="AB22" s="2"/>
       <c r="AC22" s="2"/>
-    </row>
-    <row r="23" spans="1:29" s="6" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A23" s="13"/>
-      <c r="B23" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="D23" s="14">
+      <c r="AD22" s="2"/>
+    </row>
+    <row r="23" spans="1:30" s="6" customFormat="1" ht="57">
+      <c r="A23" s="18"/>
+      <c r="B23" s="18">
+        <v>3.1</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="E23" s="18">
         <v>21</v>
       </c>
-      <c r="E23" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="F23" s="14"/>
-      <c r="G23" s="2"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
@@ -1840,208 +2316,358 @@
       <c r="AA23" s="2"/>
       <c r="AB23" s="2"/>
       <c r="AC23" s="2"/>
-    </row>
-    <row r="24" spans="1:29" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A24" s="10"/>
-      <c r="B24" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="D24" s="11">
+      <c r="AD23" s="2"/>
+    </row>
+    <row r="24" spans="1:30" ht="37.5">
+      <c r="A24" s="17"/>
+      <c r="B24" s="9">
+        <v>3.2</v>
+      </c>
+      <c r="C24" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="D24" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="E24" s="17">
+        <v>8</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="G24" s="9"/>
+    </row>
+    <row r="25" spans="1:30" ht="57">
+      <c r="A25" s="7"/>
+      <c r="B25" s="19">
+        <v>3.3</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D25" s="44" t="s">
+        <v>56</v>
+      </c>
+      <c r="E25" s="19">
         <v>21</v>
       </c>
-      <c r="E24" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="F24" s="11"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
-      <c r="P24" s="2"/>
-      <c r="Q24" s="2"/>
-      <c r="R24" s="2"/>
-      <c r="S24" s="2"/>
-      <c r="T24" s="2"/>
-      <c r="U24" s="2"/>
-      <c r="V24" s="2"/>
-      <c r="W24" s="2"/>
-      <c r="X24" s="2"/>
-      <c r="Y24" s="2"/>
-      <c r="Z24" s="2"/>
-      <c r="AA24" s="2"/>
-      <c r="AB24" s="2"/>
-      <c r="AC24" s="2"/>
-    </row>
-    <row r="25" spans="1:29" s="6" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A25" s="13"/>
-      <c r="B25" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C25" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D25" s="14">
-        <v>5</v>
-      </c>
-      <c r="E25" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="F25" s="14"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
-      <c r="L25" s="2"/>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
-      <c r="P25" s="2"/>
-      <c r="Q25" s="2"/>
-      <c r="R25" s="2"/>
-      <c r="S25" s="2"/>
-      <c r="T25" s="2"/>
-      <c r="U25" s="2"/>
-      <c r="V25" s="2"/>
-      <c r="W25" s="2"/>
-      <c r="X25" s="2"/>
-      <c r="Y25" s="2"/>
-      <c r="Z25" s="2"/>
-      <c r="AA25" s="2"/>
-      <c r="AB25" s="2"/>
-      <c r="AC25" s="2"/>
-    </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-    </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-    </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-    </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-    </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-    </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-    </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-    </row>
+      <c r="F25" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="G25" s="19"/>
+    </row>
+    <row r="26" spans="1:30" ht="75.75">
+      <c r="A26" s="13"/>
+      <c r="B26" s="18">
+        <v>3.4</v>
+      </c>
+      <c r="C26" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="D26" s="44" t="s">
+        <v>58</v>
+      </c>
+      <c r="E26" s="20">
+        <v>21</v>
+      </c>
+      <c r="F26" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="G26" s="20"/>
+    </row>
+    <row r="27" spans="1:30" ht="57">
+      <c r="A27" s="18"/>
+      <c r="B27" s="18">
+        <v>3.5</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="D27" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
+    </row>
+    <row r="28" spans="1:30" ht="18.75" customHeight="1">
+      <c r="A28" s="23">
+        <v>4</v>
+      </c>
+      <c r="B28" s="23"/>
+      <c r="C28" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="D28" s="30"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:30" ht="62.25" customHeight="1">
+      <c r="A29" s="29"/>
+      <c r="B29" s="29"/>
+      <c r="C29" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="D29" s="41" t="s">
+        <v>64</v>
+      </c>
+      <c r="E29" s="29"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="7"/>
+    </row>
+    <row r="30" spans="1:30" ht="63.75" customHeight="1">
+      <c r="A30" s="18"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="D30" s="44" t="s">
+        <v>66</v>
+      </c>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="7"/>
+    </row>
+    <row r="31" spans="1:30" ht="54" customHeight="1">
+      <c r="A31" s="20"/>
+      <c r="B31" s="20"/>
+      <c r="C31" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="D31" s="43" t="s">
+        <v>68</v>
+      </c>
+      <c r="E31" s="20"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="24"/>
+    </row>
+    <row r="32" spans="1:30" ht="42" customHeight="1">
+      <c r="A32" s="20"/>
+      <c r="B32" s="20"/>
+      <c r="C32" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="D32" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="E32" s="20"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="20"/>
+    </row>
+    <row r="33" spans="1:30" s="53" customFormat="1" ht="39" customHeight="1">
+      <c r="A33" s="50"/>
+      <c r="B33" s="50"/>
+      <c r="C33" s="51" t="s">
+        <v>71</v>
+      </c>
+      <c r="D33" s="49" t="s">
+        <v>72</v>
+      </c>
+      <c r="E33" s="50"/>
+      <c r="F33" s="50"/>
+      <c r="G33" s="50"/>
+      <c r="H33" s="52"/>
+      <c r="I33" s="52"/>
+      <c r="J33" s="52"/>
+      <c r="K33" s="52"/>
+      <c r="L33" s="52"/>
+      <c r="M33" s="52"/>
+      <c r="N33" s="52"/>
+      <c r="O33" s="52"/>
+      <c r="P33" s="52"/>
+      <c r="Q33" s="52"/>
+      <c r="R33" s="52"/>
+      <c r="S33" s="52"/>
+      <c r="T33" s="52"/>
+      <c r="U33" s="52"/>
+      <c r="V33" s="52"/>
+      <c r="W33" s="52"/>
+      <c r="X33" s="52"/>
+      <c r="Y33" s="52"/>
+      <c r="Z33" s="52"/>
+      <c r="AA33" s="52"/>
+      <c r="AB33" s="52"/>
+      <c r="AC33" s="52"/>
+      <c r="AD33" s="52"/>
+    </row>
+    <row r="34" spans="1:30" ht="37.5" customHeight="1">
+      <c r="A34" s="18"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="D34" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
+    </row>
+    <row r="35" spans="1:30" ht="36" customHeight="1">
+      <c r="A35" s="18"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="D35" s="48" t="s">
+        <v>74</v>
+      </c>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="18"/>
+    </row>
+    <row r="36" spans="1:30" ht="18.75" customHeight="1">
+      <c r="A36" s="18"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="37"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="18"/>
+    </row>
+    <row r="37" spans="1:30" ht="18.75" customHeight="1">
+      <c r="A37" s="18"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="37"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="18"/>
+    </row>
+    <row r="38" spans="1:30" ht="18.75" customHeight="1">
+      <c r="A38" s="18"/>
+      <c r="B38" s="18"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="38"/>
+      <c r="E38" s="18"/>
+      <c r="F38" s="18"/>
+      <c r="G38" s="18"/>
+    </row>
+    <row r="39" spans="1:30" ht="18.75" customHeight="1">
+      <c r="A39" s="18"/>
+      <c r="B39" s="18"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="38"/>
+      <c r="E39" s="18"/>
+      <c r="F39" s="18"/>
+      <c r="G39" s="18"/>
+    </row>
+    <row r="40" spans="1:30" ht="18.75" customHeight="1">
+      <c r="A40" s="18"/>
+      <c r="B40" s="18"/>
+      <c r="C40" s="27"/>
+      <c r="D40" s="39"/>
+      <c r="E40" s="18"/>
+      <c r="F40" s="18"/>
+      <c r="G40" s="18"/>
+    </row>
+    <row r="41" spans="1:30" ht="18.75" customHeight="1">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+    </row>
+    <row r="42" spans="1:30" ht="18.75" customHeight="1">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+    </row>
+    <row r="43" spans="1:30" ht="18.75" customHeight="1">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+    </row>
+    <row r="44" spans="1:30" ht="18.75" customHeight="1">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+    </row>
+    <row r="45" spans="1:30" ht="18.75" customHeight="1">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+    </row>
+    <row r="46" spans="1:30" ht="18.75" customHeight="1">
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+    </row>
+    <row r="47" spans="1:30" ht="18.75" customHeight="1">
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+    </row>
+    <row r="48" spans="1:30" ht="18.75" customHeight="1"/>
+    <row r="49" ht="18.75" customHeight="1"/>
+    <row r="50" ht="18.75" customHeight="1"/>
+    <row r="51" ht="18.75" customHeight="1"/>
+    <row r="52" ht="18.75" customHeight="1"/>
+    <row r="53" ht="18.75" customHeight="1"/>
+    <row r="54" ht="18.75" customHeight="1"/>
+    <row r="55" ht="18.75" customHeight="1"/>
+    <row r="56" ht="18.75" customHeight="1"/>
+    <row r="57" ht="18.75" customHeight="1"/>
+    <row r="58" ht="18.75" customHeight="1"/>
+    <row r="59" ht="18.75" customHeight="1"/>
+    <row r="60" ht="18.75" customHeight="1"/>
+    <row r="61" ht="18.75" customHeight="1"/>
+    <row r="62" ht="18.75" customHeight="1"/>
+    <row r="63" ht="18.75" customHeight="1"/>
+    <row r="64" ht="18.75" customHeight="1"/>
+    <row r="65" ht="18.75" customHeight="1"/>
+    <row r="66" ht="18.75" customHeight="1"/>
+    <row r="67" ht="18.75" customHeight="1"/>
+    <row r="68" ht="18.75" customHeight="1"/>
+    <row r="69" ht="18.75" customHeight="1"/>
+    <row r="70" ht="18.75" customHeight="1"/>
+    <row r="71" ht="18.75" customHeight="1"/>
+    <row r="72" ht="18.75" customHeight="1"/>
+    <row r="73" ht="18.75" customHeight="1"/>
+    <row r="74" ht="18.75" customHeight="1"/>
+    <row r="75" ht="18.75" customHeight="1"/>
+    <row r="76" ht="18.75" customHeight="1"/>
+    <row r="77" ht="18.75" customHeight="1"/>
+    <row r="78" ht="18.75" customHeight="1"/>
+    <row r="79" ht="18.75" customHeight="1"/>
+    <row r="80" ht="18.75" customHeight="1"/>
+    <row r="81" ht="18.75" customHeight="1"/>
+    <row r="82" ht="18.75" customHeight="1"/>
+    <row r="83" ht="18.75" customHeight="1"/>
+    <row r="84" ht="18.75" customHeight="1"/>
+    <row r="85" ht="18.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:F2"/>
+    <mergeCell ref="A1:G2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -2064,15 +2690,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101007F8ECE7139958D46ABEDA89D12B90CBF" ma:contentTypeVersion="9" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="fc6ca3c4d9f86cad7827b9c44c9370ab">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0a53ad5e-08cc-4fba-9df9-747b79db3e02" xmlns:ns3="99f50afe-28e2-457c-9852-048361d66aad" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9bb930a2bb6387e3bc0009f6fad1667e" ns2:_="" ns3:_="">
     <xsd:import namespace="0a53ad5e-08cc-4fba-9df9-747b79db3e02"/>
@@ -2249,40 +2866,23 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4AD3564D-D1C5-47A1-B632-7A8046C7E804}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="0a53ad5e-08cc-4fba-9df9-747b79db3e02"/>
-    <ds:schemaRef ds:uri="99f50afe-28e2-457c-9852-048361d66aad"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4AD3564D-D1C5-47A1-B632-7A8046C7E804}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{004F82F3-2BB5-45F0-9443-A4EFAD5D7A50}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B65A41B-6173-4732-9D98-8D7BB91ACD5C}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B65A41B-6173-4732-9D98-8D7BB91ACD5C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="0a53ad5e-08cc-4fba-9df9-747b79db3e02"/>
-    <ds:schemaRef ds:uri="99f50afe-28e2-457c-9852-048361d66aad"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{004F82F3-2BB5-45F0-9443-A4EFAD5D7A50}"/>
 </file>